--- a/Data/Test SWV/Excel Files/Pbp3.xlsx
+++ b/Data/Test SWV/Excel Files/Pbp3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A122"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mar. 8, 2023   20:43:26</t>
+          <t>Mar. 8</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   20:43:26</t>
         </is>
       </c>
     </row>
@@ -543,707 +548,2222 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-0.004, -5.891e-5, -3.174e-5, 2.718e-5</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.891e-5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.174e-5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.718e-5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.008, -5.948e-5, -3.288e-5, 2.660e-5</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.948e-5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.288e-5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.660e-5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.012, -5.956e-5, -3.331e-5, 2.625e-5</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.956e-5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.331e-5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.625e-5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.016, -5.959e-5, -3.361e-5, 2.598e-5</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.959e-5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.361e-5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.598e-5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.020, -5.968e-5, -3.388e-5, 2.580e-5</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.968e-5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.388e-5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.580e-5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.024, -5.970e-5, -3.412e-5, 2.558e-5</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.970e-5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.412e-5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.558e-5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.028, -5.973e-5, -3.428e-5, 2.546e-5</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.973e-5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.428e-5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.546e-5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.032, -5.980e-5, -3.446e-5, 2.533e-5</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.980e-5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.446e-5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.533e-5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.036, -5.984e-5, -3.461e-5, 2.523e-5</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.984e-5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.461e-5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.523e-5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.040, -5.996e-5, -3.480e-5, 2.516e-5</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.996e-5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.480e-5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.516e-5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.044, -6.003e-5, -3.496e-5, 2.507e-5</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.003e-5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.496e-5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.507e-5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.048, -6.012e-5, -3.513e-5, 2.499e-5</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.012e-5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.513e-5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.499e-5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.052, -6.022e-5, -3.528e-5, 2.494e-5</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.022e-5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.528e-5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.494e-5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.056, -6.029e-5, -3.542e-5, 2.486e-5</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.029e-5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.542e-5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.486e-5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.060, -6.041e-5, -3.559e-5, 2.482e-5</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.041e-5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.559e-5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.482e-5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.064, -6.051e-5, -3.576e-5, 2.475e-5</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.051e-5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.576e-5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.475e-5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.068, -6.061e-5, -3.590e-5, 2.471e-5</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.061e-5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.590e-5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.471e-5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.072, -6.071e-5, -3.606e-5, 2.465e-5</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.071e-5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.606e-5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.465e-5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.076, -6.077e-5, -3.618e-5, 2.458e-5</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.077e-5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.618e-5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.458e-5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.080, -6.092e-5, -3.637e-5, 2.455e-5</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.092e-5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.637e-5</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.455e-5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.084, -6.103e-5, -3.653e-5, 2.450e-5</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.103e-5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.653e-5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.450e-5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.088, -6.112e-5, -3.668e-5, 2.444e-5</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.112e-5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.668e-5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.444e-5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.092, -6.122e-5, -3.683e-5, 2.440e-5</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.122e-5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.683e-5</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.440e-5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.096, -6.129e-5, -3.696e-5, 2.434e-5</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.129e-5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.696e-5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.434e-5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.100, -6.140e-5, -3.711e-5, 2.429e-5</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.140e-5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.711e-5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.429e-5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.104, -6.151e-5, -3.727e-5, 2.424e-5</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.151e-5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.727e-5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.424e-5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.108, -6.157e-5, -3.738e-5, 2.418e-5</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.157e-5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.738e-5</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.418e-5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.112, -6.165e-5, -3.752e-5, 2.413e-5</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.165e-5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.752e-5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.413e-5</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.116, -6.171e-5, -3.763e-5, 2.408e-5</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.171e-5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.763e-5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.408e-5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.120, -6.182e-5, -3.778e-5, 2.404e-5</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.182e-5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.778e-5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.404e-5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.124, -6.187e-5, -3.791e-5, 2.397e-5</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.187e-5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.791e-5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.397e-5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.128, -6.195e-5, -3.803e-5, 2.392e-5</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.195e-5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.803e-5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.392e-5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.132, -6.204e-5, -3.816e-5, 2.388e-5</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.204e-5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.816e-5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.388e-5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.136, -6.212e-5, -3.828e-5, 2.384e-5</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.212e-5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.828e-5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.384e-5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.140, -6.222e-5, -3.841e-5, 2.381e-5</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.222e-5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.841e-5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.381e-5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.144, -6.233e-5, -3.856e-5, 2.376e-5</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.233e-5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.856e-5</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.376e-5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.148, -6.242e-5, -3.868e-5, 2.375e-5</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.242e-5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.868e-5</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.375e-5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.152, -6.252e-5, -3.882e-5, 2.370e-5</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.252e-5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.882e-5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.370e-5</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.156, -6.262e-5, -3.893e-5, 2.369e-5</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.262e-5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.893e-5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.369e-5</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.160, -6.277e-5, -3.909e-5, 2.368e-5</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.277e-5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.909e-5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.368e-5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.164, -6.291e-5, -3.925e-5, 2.366e-5</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.291e-5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.925e-5</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.366e-5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.168, -6.308e-5, -3.941e-5, 2.368e-5</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.308e-5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.941e-5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.368e-5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.172, -6.322e-5, -3.955e-5, 2.368e-5</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.322e-5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.955e-5</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.368e-5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.176, -6.336e-5, -3.969e-5, 2.367e-5</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.336e-5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.969e-5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.367e-5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.180, -6.357e-5, -3.987e-5, 2.370e-5</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.357e-5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.987e-5</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.370e-5</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.184, -6.373e-5, -4.003e-5, 2.370e-5</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.373e-5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.003e-5</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.370e-5</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.188, -6.387e-5, -4.016e-5, 2.371e-5</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.387e-5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.016e-5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.371e-5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.192, -6.401e-5, -4.030e-5, 2.371e-5</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.401e-5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.030e-5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.371e-5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.196, -6.412e-5, -4.040e-5, 2.372e-5</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.412e-5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.040e-5</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.372e-5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.200, -6.428e-5, -4.055e-5, 2.373e-5</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.428e-5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.055e-5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.373e-5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.204, -6.435e-5, -4.064e-5, 2.371e-5</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.435e-5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.064e-5</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.371e-5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.208, -6.444e-5, -4.074e-5, 2.370e-5</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.444e-5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.074e-5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.370e-5</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.212, -6.450e-5, -4.080e-5, 2.370e-5</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.450e-5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.080e-5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.370e-5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.216, -6.449e-5, -4.084e-5, 2.365e-5</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.449e-5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.084e-5</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.365e-5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.220, -6.451e-5, -4.089e-5, 2.363e-5</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.451e-5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.089e-5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.363e-5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.224, -6.451e-5, -4.092e-5, 2.358e-5</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.451e-5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.092e-5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.358e-5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.228, -6.443e-5, -4.090e-5, 2.353e-5</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.443e-5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.090e-5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.353e-5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.232, -6.437e-5, -4.091e-5, 2.346e-5</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.437e-5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.091e-5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.346e-5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.236, -6.425e-5, -4.085e-5, 2.340e-5</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.425e-5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.085e-5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.340e-5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.240, -6.419e-5, -4.085e-5, 2.334e-5</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.419e-5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.085e-5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.334e-5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.244, -6.408e-5, -4.081e-5, 2.327e-5</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.408e-5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.081e-5</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.327e-5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.248, -6.397e-5, -4.076e-5, 2.321e-5</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.397e-5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.076e-5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.321e-5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.252, -6.385e-5, -4.071e-5, 2.314e-5</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.385e-5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.071e-5</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.314e-5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.256, -6.370e-5, -4.065e-5, 2.306e-5</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.370e-5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.065e-5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.306e-5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.260, -6.362e-5, -4.061e-5, 2.301e-5</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.362e-5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.061e-5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.301e-5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.264, -6.352e-5, -4.058e-5, 2.294e-5</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.352e-5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.058e-5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.294e-5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.268, -6.336e-5, -4.050e-5, 2.286e-5</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.336e-5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.050e-5</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.286e-5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.272, -6.326e-5, -4.047e-5, 2.279e-5</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.326e-5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.047e-5</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.279e-5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.276, -6.313e-5, -4.039e-5, 2.274e-5</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.313e-5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.039e-5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.274e-5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.280, -6.306e-5, -4.039e-5, 2.268e-5</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.306e-5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.039e-5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.268e-5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.284, -6.298e-5, -4.036e-5, 2.262e-5</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.298e-5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.036e-5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.262e-5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.288, -6.290e-5, -4.032e-5, 2.257e-5</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.290e-5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.032e-5</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.257e-5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.292, -6.283e-5, -4.030e-5, 2.253e-5</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.283e-5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.030e-5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.253e-5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.296, -6.275e-5, -4.027e-5, 2.248e-5</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.275e-5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.027e-5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.248e-5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.300, -6.271e-5, -4.026e-5, 2.245e-5</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.271e-5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.026e-5</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.245e-5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.304, -6.267e-5, -4.027e-5, 2.240e-5</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.267e-5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.027e-5</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.240e-5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.308, -6.262e-5, -4.025e-5, 2.237e-5</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.262e-5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.025e-5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.237e-5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.312, -6.257e-5, -4.026e-5, 2.232e-5</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.257e-5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.026e-5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.232e-5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.316, -6.252e-5, -4.023e-5, 2.229e-5</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.252e-5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.023e-5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.229e-5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.320, -6.253e-5, -4.027e-5, 2.226e-5</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.253e-5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.027e-5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.226e-5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.324, -6.253e-5, -4.029e-5, 2.224e-5</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.253e-5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.029e-5</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.224e-5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.328, -6.253e-5, -4.032e-5, 2.222e-5</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.253e-5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.032e-5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.222e-5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.332, -6.251e-5, -4.034e-5, 2.217e-5</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.251e-5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.034e-5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.217e-5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.336, -6.250e-5, -4.036e-5, 2.214e-5</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.250e-5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.036e-5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.214e-5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.340, -6.255e-5, -4.041e-5, 2.214e-5</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.255e-5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.041e-5</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.214e-5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.344, -6.257e-5, -4.047e-5, 2.210e-5</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.257e-5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.047e-5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.210e-5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.348, -6.259e-5, -4.050e-5, 2.209e-5</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.259e-5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.050e-5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.209e-5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.352, -6.260e-5, -4.056e-5, 2.205e-5</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.260e-5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.056e-5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.205e-5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.356, -6.261e-5, -4.059e-5, 2.202e-5</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.261e-5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.059e-5</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.202e-5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.360, -6.269e-5, -4.067e-5, 2.201e-5</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.269e-5</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.067e-5</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.201e-5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.364, -6.272e-5, -4.074e-5, 2.198e-5</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.272e-5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.074e-5</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.198e-5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.368, -6.277e-5, -4.081e-5, 2.196e-5</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.277e-5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.081e-5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.196e-5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.372, -6.283e-5, -4.088e-5, 2.194e-5</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.283e-5</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.088e-5</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.194e-5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.376, -6.285e-5, -4.095e-5, 2.190e-5</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.285e-5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.095e-5</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.190e-5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.380, -6.292e-5, -4.104e-5, 2.188e-5</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.292e-5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.104e-5</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.188e-5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.384, -6.298e-5, -4.114e-5, 2.184e-5</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.298e-5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.114e-5</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.184e-5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.388, -6.306e-5, -4.124e-5, 2.182e-5</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.306e-5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.124e-5</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.182e-5</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.392, -6.312e-5, -4.133e-5, 2.178e-5</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.312e-5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.133e-5</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.178e-5</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.396, -6.315e-5, -4.140e-5, 2.174e-5</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.315e-5</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.140e-5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.174e-5</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.400, -6.325e-5, -4.154e-5, 2.171e-5</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.325e-5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.154e-5</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.171e-5</t>
         </is>
       </c>
     </row>
